--- a/test.xlsx
+++ b/test.xlsx
@@ -12,30 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>snack</t>
-  </si>
-  <si>
-    <t>นักเก็ตไก่</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>02-11-2024</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>เฟรนซ์ฟรายส์</t>
   </si>
   <si>
     <t>50.0</t>
+  </si>
+  <si>
+    <t>02-11-2024</t>
   </si>
   <si>
     <t>3</t>
@@ -48,6 +39,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>นักเก็ตไก่</t>
   </si>
   <si>
     <t>250.0</t>
@@ -95,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -152,23 +146,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
